--- a/SuppXLS/Scen_UC_DECEL_LO.xlsx
+++ b/SuppXLS/Scen_UC_DECEL_LO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398CE0F7-7D73-42B8-9583-C32F10CB8219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3378635A-FF52-45B8-8636-7031D0F37210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12993743-A3C9-4B22-8ADD-D2910F70577E}"/>
   </bookViews>
@@ -107,7 +107,7 @@
     <t>AllRegions</t>
   </si>
   <si>
-    <t>UC_COMPRD</t>
+    <t>FLO_SHARE</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -201,7 +201,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,7 +608,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +708,7 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6">
         <v>-0.2</v>
       </c>
       <c r="M6">
@@ -744,13 +743,13 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7">
         <v>-0.5</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7">
         <v>15</v>
       </c>
       <c r="O7" t="s">

--- a/SuppXLS/Scen_UC_DECEL_LO.xlsx
+++ b/SuppXLS/Scen_UC_DECEL_LO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3378635A-FF52-45B8-8636-7031D0F37210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ADA928-4B92-413A-87E0-06A23EF2DD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12993743-A3C9-4B22-8ADD-D2910F70577E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>UC - Each Region/Period</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>AllRegions</t>
-  </si>
-  <si>
-    <t>FLO_SHARE</t>
   </si>
 </sst>
 </file>
@@ -607,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE217BF5-23EC-4D23-B173-E15767463FEB}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,9 +693,6 @@
       <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
       <c r="I6">
         <v>2030</v>
       </c>
@@ -730,9 +724,6 @@
       </c>
       <c r="G7" t="s">
         <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
       </c>
       <c r="I7">
         <v>2050</v>
